--- a/ServiceNowQAAutomation/SNOWQA/testdata/Incident_Management_TestData.xlsx
+++ b/ServiceNowQAAutomation/SNOWQA/testdata/Incident_Management_TestData.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>Serial No.</t>
   </si>
@@ -117,70 +117,46 @@
     <t>Passed</t>
   </si>
   <si>
-    <t>INC0020819</t>
-  </si>
-  <si>
-    <t>INC0020862</t>
+    <t>INC0020960</t>
+  </si>
+  <si>
+    <t>INC0021039</t>
+  </si>
+  <si>
+    <t>Sathyanarayanan V</t>
+  </si>
+  <si>
+    <t>Cause Code</t>
+  </si>
+  <si>
+    <t>Sub Cause Code</t>
+  </si>
+  <si>
+    <t>Mitigation and Solution Steps</t>
+  </si>
+  <si>
+    <t>Change</t>
+  </si>
+  <si>
+    <t>Change Failure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitigation and Solution Steps for </t>
+  </si>
+  <si>
+    <t>testResolveIncidentTicket</t>
+  </si>
+  <si>
+    <t>Configuration Item</t>
+  </si>
+  <si>
+    <t>162LOAN-TPL-G</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>INC0020863</t>
-  </si>
-  <si>
-    <t>INC0020864</t>
-  </si>
-  <si>
-    <t>INC0020865</t>
-  </si>
-  <si>
-    <t>Failed</t>
-  </si>
-  <si>
-    <t>INC0020866</t>
-  </si>
-  <si>
-    <t>INC0020867</t>
-  </si>
-  <si>
-    <t>INC0020868</t>
-  </si>
-  <si>
-    <t>INC0020891</t>
-  </si>
-  <si>
-    <t>INC0020892</t>
-  </si>
-  <si>
-    <t>INC0020894</t>
-  </si>
-  <si>
-    <t>INC0020896</t>
-  </si>
-  <si>
-    <t>INC0020901</t>
-  </si>
-  <si>
-    <t>INC0020902</t>
-  </si>
-  <si>
-    <t>INC0020933</t>
-  </si>
-  <si>
-    <t>INC0020934</t>
-  </si>
-  <si>
-    <t>INC0020935</t>
-  </si>
-  <si>
-    <t>INC0020936</t>
-  </si>
-  <si>
-    <t>INC0020959</t>
-  </si>
-  <si>
-    <t>INC0020960</t>
+    <t>INC0021040</t>
   </si>
 </sst>
 </file>
@@ -275,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -296,6 +272,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -591,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" activeCellId="2" sqref="F2 F3 F5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -610,14 +589,15 @@
     <col min="11" max="11" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
     <col min="12" max="12" customWidth="true" width="20.5546875" collapsed="true"/>
     <col min="13" max="13" bestFit="true" customWidth="true" width="17.88671875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="8.5546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="16.109375" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="17.88671875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="10.44140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="28.44140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="17.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="24">
+    <row r="1" spans="1:19" ht="24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -657,13 +637,22 @@
       <c r="M1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
+      <c r="N1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
     </row>
-    <row r="2" spans="1:18" ht="24">
+    <row r="2" spans="1:19" ht="24">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -671,7 +660,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" t="s">
@@ -699,11 +688,12 @@
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
-      <c r="P2" s="3"/>
+      <c r="P2" s="5"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
     </row>
-    <row r="3" spans="1:18" ht="24">
+    <row r="3" spans="1:19" ht="24">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -711,7 +701,7 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" t="s">
@@ -741,33 +731,51 @@
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
-      <c r="P3" s="3"/>
+      <c r="P3" s="5"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="3"/>
+      <c r="B4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
       <c r="F4" s="3"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="H4" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
+      <c r="N4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -785,11 +793,12 @@
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
-      <c r="P5" s="3"/>
+      <c r="P5" s="5"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -807,9 +816,10 @@
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
-      <c r="P6" s="3"/>
+      <c r="P6" s="5"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/ServiceNowQAAutomation/SNOWQA/testdata/Incident_Management_TestData.xlsx
+++ b/ServiceNowQAAutomation/SNOWQA/testdata/Incident_Management_TestData.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="52">
   <si>
     <t>Serial No.</t>
   </si>
@@ -117,12 +117,6 @@
     <t>Passed</t>
   </si>
   <si>
-    <t>INC0020960</t>
-  </si>
-  <si>
-    <t>INC0021039</t>
-  </si>
-  <si>
     <t>Sathyanarayanan V</t>
   </si>
   <si>
@@ -153,10 +147,61 @@
     <t>162LOAN-TPL-G</t>
   </si>
   <si>
+    <t>testCancelIncidentTicket</t>
+  </si>
+  <si>
+    <t>Reason for Cancellation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancelling the incident ticket </t>
+  </si>
+  <si>
+    <t>Cancelled - Should be a Service Request</t>
+  </si>
+  <si>
+    <t>INC0021089</t>
+  </si>
+  <si>
+    <t>INC0021090</t>
+  </si>
+  <si>
+    <t>INC0021114</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>INC0021040</t>
+    <t>INC0021115</t>
+  </si>
+  <si>
+    <t>INC0021117</t>
+  </si>
+  <si>
+    <t>INC0021118</t>
+  </si>
+  <si>
+    <t>INC0021119</t>
+  </si>
+  <si>
+    <t>INC0021120</t>
+  </si>
+  <si>
+    <t>INC0021121</t>
+  </si>
+  <si>
+    <t>INC0021223</t>
+  </si>
+  <si>
+    <t>INC0021224</t>
+  </si>
+  <si>
+    <t>INC0021225</t>
+  </si>
+  <si>
+    <t>INC0021226</t>
+  </si>
+  <si>
+    <t>INC0021227</t>
   </si>
 </sst>
 </file>
@@ -251,29 +296,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -573,28 +619,30 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.21875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="24.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="32.6640625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="30.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="20.5546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="17.88671875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="17.88671875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="10.44140625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="14.109375" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="28.44140625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="6" width="8.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="6" width="30.21875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="6" width="12.0" collapsed="true"/>
+    <col min="4" max="5" style="6" width="8.88671875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="6" width="24.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="6" width="32.6640625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="6" width="16.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="6" width="30.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="6" width="14.33203125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="6" width="16.5546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="6" width="20.5546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="6" width="17.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="6" width="17.88671875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="6" width="10.44140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="6" width="14.109375" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="6" width="18.109375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="6" width="18.0" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="6" width="17.33203125" collapsed="true"/>
+    <col min="20" max="16384" style="6" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24">
@@ -610,13 +658,13 @@
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -634,192 +682,204 @@
       <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>33</v>
+      <c r="N1" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
+      <c r="R1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S1" s="5"/>
     </row>
     <row r="2" spans="1:19" ht="24">
-      <c r="A2" s="4">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="6"/>
+        <v>49</v>
+      </c>
+      <c r="D2" s="2"/>
       <c r="E2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="5" t="s">
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:19" ht="24">
-      <c r="A3" s="4">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="D3" s="8"/>
       <c r="E3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="5" t="s">
+      <c r="H3" s="2"/>
+      <c r="I3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
     </row>
-    <row r="4" spans="1:19">
-      <c r="A4" s="4">
+    <row r="4" spans="1:19" ht="28.8">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>32</v>
+      <c r="B4" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="D4" s="8"/>
       <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="O4" s="5" t="s">
+      <c r="F4" s="8"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
     </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="4">
+    <row r="5" spans="1:19" ht="35.4">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
+      <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S5" s="8"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="4">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/ServiceNowQAAutomation/SNOWQA/testdata/Incident_Management_TestData.xlsx
+++ b/ServiceNowQAAutomation/SNOWQA/testdata/Incident_Management_TestData.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="113">
   <si>
     <t>Serial No.</t>
   </si>
@@ -202,6 +202,189 @@
   </si>
   <si>
     <t>INC0021227</t>
+  </si>
+  <si>
+    <t>INC0021272</t>
+  </si>
+  <si>
+    <t>INC0021279</t>
+  </si>
+  <si>
+    <t>INC0021280</t>
+  </si>
+  <si>
+    <t>INC0021281</t>
+  </si>
+  <si>
+    <t>INC0021321</t>
+  </si>
+  <si>
+    <t>INC0021324</t>
+  </si>
+  <si>
+    <t>INC0021325</t>
+  </si>
+  <si>
+    <t>INC0021326</t>
+  </si>
+  <si>
+    <t>INC0021464</t>
+  </si>
+  <si>
+    <t>INC0021465</t>
+  </si>
+  <si>
+    <t>INC0021466</t>
+  </si>
+  <si>
+    <t>INC0021467</t>
+  </si>
+  <si>
+    <t>INC0021468</t>
+  </si>
+  <si>
+    <t>INC0021469</t>
+  </si>
+  <si>
+    <t>INC0021470</t>
+  </si>
+  <si>
+    <t>INC0021471</t>
+  </si>
+  <si>
+    <t>INC0021472</t>
+  </si>
+  <si>
+    <t>INC0021473</t>
+  </si>
+  <si>
+    <t>INC0021474</t>
+  </si>
+  <si>
+    <t>INC0021475</t>
+  </si>
+  <si>
+    <t>INC0021476</t>
+  </si>
+  <si>
+    <t>INC0021477</t>
+  </si>
+  <si>
+    <t>INC0021478</t>
+  </si>
+  <si>
+    <t>INC0021479</t>
+  </si>
+  <si>
+    <t>INC0021480</t>
+  </si>
+  <si>
+    <t>INC0021481</t>
+  </si>
+  <si>
+    <t>INC0021482</t>
+  </si>
+  <si>
+    <t>INC0021483</t>
+  </si>
+  <si>
+    <t>INC0021484</t>
+  </si>
+  <si>
+    <t>INC0021485</t>
+  </si>
+  <si>
+    <t>INC0021486</t>
+  </si>
+  <si>
+    <t>INC0021487</t>
+  </si>
+  <si>
+    <t>INC0021488</t>
+  </si>
+  <si>
+    <t>INC0021489</t>
+  </si>
+  <si>
+    <t>INC0021490</t>
+  </si>
+  <si>
+    <t>INC0021491</t>
+  </si>
+  <si>
+    <t>INC0021492</t>
+  </si>
+  <si>
+    <t>INC0021493</t>
+  </si>
+  <si>
+    <t>INC0021494</t>
+  </si>
+  <si>
+    <t>INC0021495</t>
+  </si>
+  <si>
+    <t>INC0021605</t>
+  </si>
+  <si>
+    <t>INC0021606</t>
+  </si>
+  <si>
+    <t>INC0021608</t>
+  </si>
+  <si>
+    <t>INC0021609</t>
+  </si>
+  <si>
+    <t>INC0021610</t>
+  </si>
+  <si>
+    <t>INC0021611</t>
+  </si>
+  <si>
+    <t>INC0021612</t>
+  </si>
+  <si>
+    <t>INC0021613</t>
+  </si>
+  <si>
+    <t>INC0021614</t>
+  </si>
+  <si>
+    <t>INC0021746</t>
+  </si>
+  <si>
+    <t>INC0021747</t>
+  </si>
+  <si>
+    <t>INC0021748</t>
+  </si>
+  <si>
+    <t>INC0021752</t>
+  </si>
+  <si>
+    <t>INC0021753</t>
+  </si>
+  <si>
+    <t>INC0021754</t>
+  </si>
+  <si>
+    <t>INC0021755</t>
+  </si>
+  <si>
+    <t>INC0021757</t>
+  </si>
+  <si>
+    <t>INC0021758</t>
+  </si>
+  <si>
+    <t>INC0021759</t>
+  </si>
+  <si>
+    <t>INC0021760</t>
+  </si>
+  <si>
+    <t>INC0021761</t>
   </si>
 </sst>
 </file>
@@ -710,7 +893,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s">
@@ -751,7 +934,7 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" t="s">
@@ -794,7 +977,7 @@
         <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" t="s">
@@ -833,7 +1016,7 @@
         <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" t="s">

--- a/ServiceNowQAAutomation/SNOWQA/testdata/Incident_Management_TestData.xlsx
+++ b/ServiceNowQAAutomation/SNOWQA/testdata/Incident_Management_TestData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="48" windowWidth="15156" windowHeight="7992"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="15150" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Smoke_Suite" sheetId="3" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>Serial No.</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Phase</t>
   </si>
   <si>
-    <t>DEVELOP-QA-SERVICE-MANAGER-AG</t>
-  </si>
-  <si>
     <t>testCreateStandAloneIncidentTicket</t>
   </si>
   <si>
@@ -117,9 +114,6 @@
     <t>Passed</t>
   </si>
   <si>
-    <t>Sathyanarayanan V</t>
-  </si>
-  <si>
     <t>Cause Code</t>
   </si>
   <si>
@@ -144,9 +138,6 @@
     <t>Configuration Item</t>
   </si>
   <si>
-    <t>162LOAN-TPL-G</t>
-  </si>
-  <si>
     <t>testCancelIncidentTicket</t>
   </si>
   <si>
@@ -159,232 +150,34 @@
     <t>Cancelled - Should be a Service Request</t>
   </si>
   <si>
-    <t>INC0021089</t>
-  </si>
-  <si>
-    <t>INC0021090</t>
-  </si>
-  <si>
-    <t>INC0021114</t>
+    <t>SERVICE-MGMT-TECHM-QA</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>INC0602529</t>
+  </si>
+  <si>
+    <t>Amreen noor</t>
+  </si>
+  <si>
+    <t>Amreen Noor</t>
+  </si>
+  <si>
+    <t>INC1021286</t>
+  </si>
+  <si>
+    <t>INC1021395</t>
+  </si>
+  <si>
+    <t>tara</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>INC0021115</t>
-  </si>
-  <si>
-    <t>INC0021117</t>
-  </si>
-  <si>
-    <t>INC0021118</t>
-  </si>
-  <si>
-    <t>INC0021119</t>
-  </si>
-  <si>
-    <t>INC0021120</t>
-  </si>
-  <si>
-    <t>INC0021121</t>
-  </si>
-  <si>
-    <t>INC0021223</t>
-  </si>
-  <si>
-    <t>INC0021224</t>
-  </si>
-  <si>
-    <t>INC0021225</t>
-  </si>
-  <si>
-    <t>INC0021226</t>
-  </si>
-  <si>
-    <t>INC0021227</t>
-  </si>
-  <si>
-    <t>INC0021272</t>
-  </si>
-  <si>
-    <t>INC0021279</t>
-  </si>
-  <si>
-    <t>INC0021280</t>
-  </si>
-  <si>
-    <t>INC0021281</t>
-  </si>
-  <si>
-    <t>INC0021321</t>
-  </si>
-  <si>
-    <t>INC0021324</t>
-  </si>
-  <si>
-    <t>INC0021325</t>
-  </si>
-  <si>
-    <t>INC0021326</t>
-  </si>
-  <si>
-    <t>INC0021464</t>
-  </si>
-  <si>
-    <t>INC0021465</t>
-  </si>
-  <si>
-    <t>INC0021466</t>
-  </si>
-  <si>
-    <t>INC0021467</t>
-  </si>
-  <si>
-    <t>INC0021468</t>
-  </si>
-  <si>
-    <t>INC0021469</t>
-  </si>
-  <si>
-    <t>INC0021470</t>
-  </si>
-  <si>
-    <t>INC0021471</t>
-  </si>
-  <si>
-    <t>INC0021472</t>
-  </si>
-  <si>
-    <t>INC0021473</t>
-  </si>
-  <si>
-    <t>INC0021474</t>
-  </si>
-  <si>
-    <t>INC0021475</t>
-  </si>
-  <si>
-    <t>INC0021476</t>
-  </si>
-  <si>
-    <t>INC0021477</t>
-  </si>
-  <si>
-    <t>INC0021478</t>
-  </si>
-  <si>
-    <t>INC0021479</t>
-  </si>
-  <si>
-    <t>INC0021480</t>
-  </si>
-  <si>
-    <t>INC0021481</t>
-  </si>
-  <si>
-    <t>INC0021482</t>
-  </si>
-  <si>
-    <t>INC0021483</t>
-  </si>
-  <si>
-    <t>INC0021484</t>
-  </si>
-  <si>
-    <t>INC0021485</t>
-  </si>
-  <si>
-    <t>INC0021486</t>
-  </si>
-  <si>
-    <t>INC0021487</t>
-  </si>
-  <si>
-    <t>INC0021488</t>
-  </si>
-  <si>
-    <t>INC0021489</t>
-  </si>
-  <si>
-    <t>INC0021490</t>
-  </si>
-  <si>
-    <t>INC0021491</t>
-  </si>
-  <si>
-    <t>INC0021492</t>
-  </si>
-  <si>
-    <t>INC0021493</t>
-  </si>
-  <si>
-    <t>INC0021494</t>
-  </si>
-  <si>
-    <t>INC0021495</t>
-  </si>
-  <si>
-    <t>INC0021605</t>
-  </si>
-  <si>
-    <t>INC0021606</t>
-  </si>
-  <si>
-    <t>INC0021608</t>
-  </si>
-  <si>
-    <t>INC0021609</t>
-  </si>
-  <si>
-    <t>INC0021610</t>
-  </si>
-  <si>
-    <t>INC0021611</t>
-  </si>
-  <si>
-    <t>INC0021612</t>
-  </si>
-  <si>
-    <t>INC0021613</t>
-  </si>
-  <si>
-    <t>INC0021614</t>
-  </si>
-  <si>
-    <t>INC0021746</t>
-  </si>
-  <si>
-    <t>INC0021747</t>
-  </si>
-  <si>
-    <t>INC0021748</t>
-  </si>
-  <si>
-    <t>INC0021752</t>
-  </si>
-  <si>
-    <t>INC0021753</t>
-  </si>
-  <si>
-    <t>INC0021754</t>
-  </si>
-  <si>
-    <t>INC0021755</t>
-  </si>
-  <si>
-    <t>INC0021757</t>
-  </si>
-  <si>
-    <t>INC0021758</t>
-  </si>
-  <si>
-    <t>INC0021759</t>
-  </si>
-  <si>
-    <t>INC0021760</t>
-  </si>
-  <si>
-    <t>INC0021761</t>
+    <t>INC1021403</t>
   </si>
 </sst>
 </file>
@@ -392,7 +185,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -413,8 +206,32 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -425,6 +242,16 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
       </patternFill>
     </fill>
   </fills>
@@ -479,15 +306,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -505,6 +329,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -801,31 +630,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="6" width="8.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="6" width="30.21875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="6" width="12.0" collapsed="true"/>
-    <col min="4" max="5" style="6" width="8.88671875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="6" width="24.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="6" width="32.6640625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="6" width="16.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="6" width="30.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="6" width="14.33203125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="6" width="16.5546875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="6" width="20.5546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="6" width="17.88671875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="6" width="17.88671875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="6" width="10.44140625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="6" width="14.109375" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="6" width="18.109375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="6" width="18.0" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="6" width="17.33203125" collapsed="true"/>
-    <col min="20" max="16384" style="6" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="8.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="5" width="30.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="4" max="5" style="5" width="8.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="5" width="24.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="5" width="32.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="5" width="16.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="5" width="30.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="5" width="14.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="5" width="16.5703125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="5" width="20.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="5" width="17.85546875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="5" width="17.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="5" width="10.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="5" width="14.140625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="5" width="18.140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="5" width="18.0" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="5" width="17.28515625" collapsed="true"/>
+    <col min="20" max="16384" style="5" width="8.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24">
@@ -836,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -845,184 +674,190 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="4"/>
+    </row>
+    <row r="2" spans="1:19" ht="24.75">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="S1" s="5"/>
-    </row>
-    <row r="2" spans="1:19" ht="24">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="I2" s="2" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
+      <c r="N2" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
     </row>
-    <row r="3" spans="1:19" ht="24">
-      <c r="A3" s="7">
+    <row r="3" spans="1:19" ht="24.75">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" t="s">
-        <v>22</v>
+        <v>43</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="M3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
     </row>
-    <row r="4" spans="1:19" ht="28.8">
-      <c r="A4" s="7">
+    <row r="4" spans="1:19" ht="30">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="7"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
-      <c r="N4" s="3" t="s">
-        <v>32</v>
+      <c r="N4" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="O4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
     </row>
-    <row r="5" spans="1:19" ht="35.4">
-      <c r="A5" s="7">
+    <row r="5" spans="1:19" ht="36.75">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="8"/>
+        <v>40</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="7"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -1030,26 +865,28 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
+      <c r="N5" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="S5" s="8"/>
+        <v>33</v>
+      </c>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="S5" s="7"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -1057,17 +894,22 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
+      <c r="N6" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G6">
-      <formula1>"DEVELOP-SERVICE-MANAGER,DEVELOP-QA-SERVICE-MANAGER-AG"</formula1>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576 I1:I1048576">
+      <formula1>"SERVICE-MGMT-TECHM-QA"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576">
+      <formula1>"Amreen Noor"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ServiceNowQAAutomation/SNOWQA/testdata/Incident_Management_TestData.xlsx
+++ b/ServiceNowQAAutomation/SNOWQA/testdata/Incident_Management_TestData.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
   <si>
     <t>Serial No.</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>INC1021403</t>
+  </si>
+  <si>
+    <t>INC1404228</t>
   </si>
 </sst>
 </file>
@@ -185,7 +188,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,6 +228,10 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -306,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -333,6 +340,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -722,7 +730,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="9" t="s">

--- a/ServiceNowQAAutomation/SNOWQA/testdata/Incident_Management_TestData.xlsx
+++ b/ServiceNowQAAutomation/SNOWQA/testdata/Incident_Management_TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="15150" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="9150" windowHeight="1575"/>
   </bookViews>
   <sheets>
     <sheet name="Smoke_Suite" sheetId="3" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="278">
   <si>
     <t>Serial No.</t>
   </si>
@@ -90,97 +90,796 @@
     <t xml:space="preserve">Test Ticket: Description for </t>
   </si>
   <si>
+    <t>Incident ID</t>
+  </si>
+  <si>
+    <t>170 Systems (Markview)</t>
+  </si>
+  <si>
+    <t>testCreateManagedIncidentTicket</t>
+  </si>
+  <si>
+    <t>Reason for Incident Manager</t>
+  </si>
+  <si>
+    <t>Brand impact</t>
+  </si>
+  <si>
+    <t>2 - Customer Only</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Cause Code</t>
+  </si>
+  <si>
+    <t>Sub Cause Code</t>
+  </si>
+  <si>
+    <t>Mitigation and Solution Steps</t>
+  </si>
+  <si>
+    <t>Change</t>
+  </si>
+  <si>
+    <t>Change Failure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitigation and Solution Steps for </t>
+  </si>
+  <si>
+    <t>testResolveIncidentTicket</t>
+  </si>
+  <si>
+    <t>Configuration Item</t>
+  </si>
+  <si>
+    <t>testCancelIncidentTicket</t>
+  </si>
+  <si>
+    <t>Reason for Cancellation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancelling the incident ticket </t>
+  </si>
+  <si>
+    <t>Cancelled - Should be a Service Request</t>
+  </si>
+  <si>
+    <t>SERVICE-MGMT-TECHM-QA</t>
+  </si>
+  <si>
+    <t>testWIPticket</t>
+  </si>
+  <si>
+    <t>Rashmi P</t>
+  </si>
+  <si>
+    <t>Work Notes</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>4 - None</t>
+  </si>
+  <si>
+    <t>testonhold</t>
+  </si>
+  <si>
+    <t>TestATT</t>
+  </si>
+  <si>
+    <t>QA Test Runner</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>VOICE-IPTEL-ATT</t>
+  </si>
+  <si>
+    <t>IncidentTask</t>
+  </si>
+  <si>
+    <t>INC1405012</t>
+  </si>
+  <si>
+    <t>Createincidentforimpact3</t>
+  </si>
+  <si>
     <t>3 - Employee Only</t>
   </si>
   <si>
-    <t>Incident ID</t>
-  </si>
-  <si>
-    <t>170 Systems (Markview)</t>
-  </si>
-  <si>
-    <t>testCreateManagedIncidentTicket</t>
-  </si>
-  <si>
-    <t>Reason for Incident Manager</t>
-  </si>
-  <si>
-    <t>Brand impact</t>
-  </si>
-  <si>
-    <t>2 - Customer Only</t>
-  </si>
-  <si>
-    <t>Passed</t>
-  </si>
-  <si>
-    <t>Cause Code</t>
-  </si>
-  <si>
-    <t>Sub Cause Code</t>
-  </si>
-  <si>
-    <t>Mitigation and Solution Steps</t>
-  </si>
-  <si>
-    <t>Change</t>
-  </si>
-  <si>
-    <t>Change Failure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mitigation and Solution Steps for </t>
-  </si>
-  <si>
-    <t>testResolveIncidentTicket</t>
-  </si>
-  <si>
-    <t>Configuration Item</t>
-  </si>
-  <si>
-    <t>testCancelIncidentTicket</t>
-  </si>
-  <si>
-    <t>Reason for Cancellation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cancelling the incident ticket </t>
-  </si>
-  <si>
-    <t>Cancelled - Should be a Service Request</t>
-  </si>
-  <si>
-    <t>SERVICE-MGMT-TECHM-QA</t>
-  </si>
-  <si>
-    <t>Failed</t>
-  </si>
-  <si>
-    <t>INC0602529</t>
-  </si>
-  <si>
-    <t>Amreen noor</t>
-  </si>
-  <si>
-    <t>Amreen Noor</t>
-  </si>
-  <si>
-    <t>INC1021286</t>
-  </si>
-  <si>
-    <t>INC1021395</t>
+    <t>Createincidentforimpact2</t>
+  </si>
+  <si>
+    <t>Createincidentforimpact1</t>
+  </si>
+  <si>
+    <t>1 - Customer and Employee</t>
+  </si>
+  <si>
+    <t>INCIDENT-MGMT-PROCESS-SHARED</t>
+  </si>
+  <si>
+    <t>Additional Comments</t>
+  </si>
+  <si>
+    <t>Ajeesh PV</t>
+  </si>
+  <si>
+    <t>Work in Progress</t>
+  </si>
+  <si>
+    <t>Resolved</t>
+  </si>
+  <si>
+    <t>INC1835257</t>
   </si>
   <si>
     <t>tara</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>INC1021403</t>
-  </si>
-  <si>
-    <t>INC1404228</t>
+    <t>INC1836739</t>
+  </si>
+  <si>
+    <t>INC1836802</t>
+  </si>
+  <si>
+    <t>Createincidentalert</t>
+  </si>
+  <si>
+    <t>Source CI</t>
+  </si>
+  <si>
+    <t>Incident Owner</t>
+  </si>
+  <si>
+    <t>Incident manager group</t>
+  </si>
+  <si>
+    <t>Shariq Siddique</t>
+  </si>
+  <si>
+    <t>MAJOR-INCIDENT-DCO-TR</t>
+  </si>
+  <si>
+    <t>Incident manager</t>
+  </si>
+  <si>
+    <t>Gary Wendt</t>
+  </si>
+  <si>
+    <t>Accountable business unit</t>
+  </si>
+  <si>
+    <t>Affected business unit</t>
+  </si>
+  <si>
+    <t>TR Corporates</t>
+  </si>
+  <si>
+    <t>Latest update</t>
+  </si>
+  <si>
+    <t>INC1836882</t>
+  </si>
+  <si>
+    <t>INC1836884</t>
+  </si>
+  <si>
+    <t>INC1836885</t>
+  </si>
+  <si>
+    <t>INC1836892</t>
+  </si>
+  <si>
+    <t>INC1836893</t>
+  </si>
+  <si>
+    <t>INC1836894</t>
+  </si>
+  <si>
+    <t>INC1836895</t>
+  </si>
+  <si>
+    <t>INC1836896</t>
+  </si>
+  <si>
+    <t>INC1836897</t>
+  </si>
+  <si>
+    <t>INC1836898</t>
+  </si>
+  <si>
+    <t>INC1836899</t>
+  </si>
+  <si>
+    <t>INC1836900</t>
+  </si>
+  <si>
+    <t>INC1836901</t>
+  </si>
+  <si>
+    <t>INC1836902</t>
+  </si>
+  <si>
+    <t>INC1836903</t>
+  </si>
+  <si>
+    <t>INC1836904</t>
+  </si>
+  <si>
+    <t>INC1836905</t>
+  </si>
+  <si>
+    <t>INC1836906</t>
+  </si>
+  <si>
+    <t>INC1836907</t>
+  </si>
+  <si>
+    <t>INC1836908</t>
+  </si>
+  <si>
+    <t>INC1836909</t>
+  </si>
+  <si>
+    <t>INC1836910</t>
+  </si>
+  <si>
+    <t>INC1836911</t>
+  </si>
+  <si>
+    <t>INC1836912</t>
+  </si>
+  <si>
+    <t>INC1836913</t>
+  </si>
+  <si>
+    <t>INC1836920</t>
+  </si>
+  <si>
+    <t>INC1836923</t>
+  </si>
+  <si>
+    <t>INC1836924</t>
+  </si>
+  <si>
+    <t>INC1836925</t>
+  </si>
+  <si>
+    <t>INC1836926</t>
+  </si>
+  <si>
+    <t>INC1836927</t>
+  </si>
+  <si>
+    <t>INC1836928</t>
+  </si>
+  <si>
+    <t>INC1836929</t>
+  </si>
+  <si>
+    <t>INC1836930</t>
+  </si>
+  <si>
+    <t>INC1836931</t>
+  </si>
+  <si>
+    <t>INC1836932</t>
+  </si>
+  <si>
+    <t>INC1836933</t>
+  </si>
+  <si>
+    <t>INC1836934</t>
+  </si>
+  <si>
+    <t>INC1836935</t>
+  </si>
+  <si>
+    <t>INC1836936</t>
+  </si>
+  <si>
+    <t>INC1836937</t>
+  </si>
+  <si>
+    <t>INC1836938</t>
+  </si>
+  <si>
+    <t>INC1836939</t>
+  </si>
+  <si>
+    <t>INC1836941</t>
+  </si>
+  <si>
+    <t>INC1836944</t>
+  </si>
+  <si>
+    <t>INC1836947</t>
+  </si>
+  <si>
+    <t>INC1836950</t>
+  </si>
+  <si>
+    <t>INC1836951</t>
+  </si>
+  <si>
+    <t>INC1836952</t>
+  </si>
+  <si>
+    <t>INC1836980</t>
+  </si>
+  <si>
+    <t>INC1836981</t>
+  </si>
+  <si>
+    <t>INC1836982</t>
+  </si>
+  <si>
+    <t>INC1836983</t>
+  </si>
+  <si>
+    <t>INC1836984</t>
+  </si>
+  <si>
+    <t>INC1836985</t>
+  </si>
+  <si>
+    <t>INC1836986</t>
+  </si>
+  <si>
+    <t>INC1836987</t>
+  </si>
+  <si>
+    <t>INC1836988</t>
+  </si>
+  <si>
+    <t>INC1836989</t>
+  </si>
+  <si>
+    <t>INC1836990</t>
+  </si>
+  <si>
+    <t>INC1836991</t>
+  </si>
+  <si>
+    <t>INC1836992</t>
+  </si>
+  <si>
+    <t>INC1836993</t>
+  </si>
+  <si>
+    <t>INC1836994</t>
+  </si>
+  <si>
+    <t>INC1836996</t>
+  </si>
+  <si>
+    <t>INC1836997</t>
+  </si>
+  <si>
+    <t>INC1836998</t>
+  </si>
+  <si>
+    <t>INC1836999</t>
+  </si>
+  <si>
+    <t>INC1837000</t>
+  </si>
+  <si>
+    <t>INC1837001</t>
+  </si>
+  <si>
+    <t>INC1837002</t>
+  </si>
+  <si>
+    <t>INC1837003</t>
+  </si>
+  <si>
+    <t>INC1837004</t>
+  </si>
+  <si>
+    <t>INC1837005</t>
+  </si>
+  <si>
+    <t>INC1837006</t>
+  </si>
+  <si>
+    <t>INC1837007</t>
+  </si>
+  <si>
+    <t>INC1837008</t>
+  </si>
+  <si>
+    <t>INC1837009</t>
+  </si>
+  <si>
+    <t>INC1837010</t>
+  </si>
+  <si>
+    <t>INC1837011</t>
+  </si>
+  <si>
+    <t>INC1837012</t>
+  </si>
+  <si>
+    <t>INC1837013</t>
+  </si>
+  <si>
+    <t>INC1837014</t>
+  </si>
+  <si>
+    <t>INC1837015</t>
+  </si>
+  <si>
+    <t>INC1837016</t>
+  </si>
+  <si>
+    <t>INC1837017</t>
+  </si>
+  <si>
+    <t>INC1837020</t>
+  </si>
+  <si>
+    <t>INC1837021</t>
+  </si>
+  <si>
+    <t>INC1837022</t>
+  </si>
+  <si>
+    <t>INC1837023</t>
+  </si>
+  <si>
+    <t>INC1837024</t>
+  </si>
+  <si>
+    <t>INC1837025</t>
+  </si>
+  <si>
+    <t>INC1837026</t>
+  </si>
+  <si>
+    <t>INC1837027</t>
+  </si>
+  <si>
+    <t>INC1837028</t>
+  </si>
+  <si>
+    <t>INC1837030</t>
+  </si>
+  <si>
+    <t>INC1837031</t>
+  </si>
+  <si>
+    <t>INC1837035</t>
+  </si>
+  <si>
+    <t>INC1837037</t>
+  </si>
+  <si>
+    <t>INC1837043</t>
+  </si>
+  <si>
+    <t>INC1837044</t>
+  </si>
+  <si>
+    <t>INC1837045</t>
+  </si>
+  <si>
+    <t>INC1837046</t>
+  </si>
+  <si>
+    <t>INC1837048</t>
+  </si>
+  <si>
+    <t>INC1837049</t>
+  </si>
+  <si>
+    <t>INC1837050</t>
+  </si>
+  <si>
+    <t>INC1837052</t>
+  </si>
+  <si>
+    <t>INC1837054</t>
+  </si>
+  <si>
+    <t>INC1837055</t>
+  </si>
+  <si>
+    <t>INC1837056</t>
+  </si>
+  <si>
+    <t>INC1837058</t>
+  </si>
+  <si>
+    <t>INC1837059</t>
+  </si>
+  <si>
+    <t>INC1837060</t>
+  </si>
+  <si>
+    <t>INC1837062</t>
+  </si>
+  <si>
+    <t>INC1837063</t>
+  </si>
+  <si>
+    <t>INC1837065</t>
+  </si>
+  <si>
+    <t>INC1837074</t>
+  </si>
+  <si>
+    <t>INC1837075</t>
+  </si>
+  <si>
+    <t>INC1837076</t>
+  </si>
+  <si>
+    <t>INC1837077</t>
+  </si>
+  <si>
+    <t>INC1837078</t>
+  </si>
+  <si>
+    <t>INC1837079</t>
+  </si>
+  <si>
+    <t>INC1837080</t>
+  </si>
+  <si>
+    <t>INC1837081</t>
+  </si>
+  <si>
+    <t>INC1837082</t>
+  </si>
+  <si>
+    <t>INC1837083</t>
+  </si>
+  <si>
+    <t>INC1837084</t>
+  </si>
+  <si>
+    <t>INC1837085</t>
+  </si>
+  <si>
+    <t>INC1837086</t>
+  </si>
+  <si>
+    <t>INC1837088</t>
+  </si>
+  <si>
+    <t>INC1837089</t>
+  </si>
+  <si>
+    <t>INC1837090</t>
+  </si>
+  <si>
+    <t>INC1837091</t>
+  </si>
+  <si>
+    <t>INC1837092</t>
+  </si>
+  <si>
+    <t>INC1837093</t>
+  </si>
+  <si>
+    <t>INC1837094</t>
+  </si>
+  <si>
+    <t>INC1837095</t>
+  </si>
+  <si>
+    <t>INC1837096</t>
+  </si>
+  <si>
+    <t>INC1837097</t>
+  </si>
+  <si>
+    <t>INC1837098</t>
+  </si>
+  <si>
+    <t>INC1837099</t>
+  </si>
+  <si>
+    <t>INC1837101</t>
+  </si>
+  <si>
+    <t>INC1837102</t>
+  </si>
+  <si>
+    <t>INC1837103</t>
+  </si>
+  <si>
+    <t>INC1837104</t>
+  </si>
+  <si>
+    <t>INC1837105</t>
+  </si>
+  <si>
+    <t>INC1837106</t>
+  </si>
+  <si>
+    <t>INC1837107</t>
+  </si>
+  <si>
+    <t>INC1837108</t>
+  </si>
+  <si>
+    <t>INC1837109</t>
+  </si>
+  <si>
+    <t>INC1837149</t>
+  </si>
+  <si>
+    <t>INC1837150</t>
+  </si>
+  <si>
+    <t>INC1837151</t>
+  </si>
+  <si>
+    <t>INC1837152</t>
+  </si>
+  <si>
+    <t>INC1837153</t>
+  </si>
+  <si>
+    <t>INC1837154</t>
+  </si>
+  <si>
+    <t>INC1837155</t>
+  </si>
+  <si>
+    <t>INC1837156</t>
+  </si>
+  <si>
+    <t>INC1837157</t>
+  </si>
+  <si>
+    <t>INC1837158</t>
+  </si>
+  <si>
+    <t>INC1837159</t>
+  </si>
+  <si>
+    <t>INC1837160</t>
+  </si>
+  <si>
+    <t>INC1837161</t>
+  </si>
+  <si>
+    <t>INC1837162</t>
+  </si>
+  <si>
+    <t>INC1837163</t>
+  </si>
+  <si>
+    <t>INC1837164</t>
+  </si>
+  <si>
+    <t>INC1837165</t>
+  </si>
+  <si>
+    <t>INC1837166</t>
+  </si>
+  <si>
+    <t>INC1837167</t>
+  </si>
+  <si>
+    <t>INC1837168</t>
+  </si>
+  <si>
+    <t>INC1837169</t>
+  </si>
+  <si>
+    <t>INC1837170</t>
+  </si>
+  <si>
+    <t>INC1837171</t>
+  </si>
+  <si>
+    <t>INC1837173</t>
+  </si>
+  <si>
+    <t>INC1837174</t>
+  </si>
+  <si>
+    <t>INC1837175</t>
+  </si>
+  <si>
+    <t>INC1837176</t>
+  </si>
+  <si>
+    <t>INC1837177</t>
+  </si>
+  <si>
+    <t>INC1837178</t>
+  </si>
+  <si>
+    <t>INC1837179</t>
+  </si>
+  <si>
+    <t>INC1837180</t>
+  </si>
+  <si>
+    <t>INC1837181</t>
+  </si>
+  <si>
+    <t>INC1837182</t>
+  </si>
+  <si>
+    <t>INC1837183</t>
+  </si>
+  <si>
+    <t>INC1837238</t>
+  </si>
+  <si>
+    <t>INC1837245</t>
+  </si>
+  <si>
+    <t>INC1837246</t>
+  </si>
+  <si>
+    <t>INC1837247</t>
+  </si>
+  <si>
+    <t>INC1837248</t>
+  </si>
+  <si>
+    <t>INC1837249</t>
+  </si>
+  <si>
+    <t>INC1837250</t>
+  </si>
+  <si>
+    <t>INC1837251</t>
+  </si>
+  <si>
+    <t>INC1837252</t>
+  </si>
+  <si>
+    <t>INC1837253</t>
+  </si>
+  <si>
+    <t>INC1837254</t>
+  </si>
+  <si>
+    <t>INC1837255</t>
+  </si>
+  <si>
+    <t>INC1837256</t>
+  </si>
+  <si>
+    <t>INC1837258</t>
+  </si>
+  <si>
+    <t>INC1837259</t>
+  </si>
+  <si>
+    <t>INC1837260</t>
+  </si>
+  <si>
+    <t>INC1837261</t>
+  </si>
+  <si>
+    <t>INC1837262</t>
+  </si>
+  <si>
+    <t>INC1837263</t>
+  </si>
+  <si>
+    <t>INC1837264</t>
+  </si>
+  <si>
+    <t>INC1837265</t>
+  </si>
+  <si>
+    <t>INC1837266</t>
   </si>
 </sst>
 </file>
@@ -188,7 +887,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="9">
+  <fonts count="513">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,13 +924,2157 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -253,16 +3096,16 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="17"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
+      <patternFill patternType="none">
         <fgColor indexed="17"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -309,11 +3152,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="526">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -336,11 +3192,541 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="54" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="58" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="62" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="102" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="109" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="116" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="119" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="122" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="125" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="129" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="133" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="137" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="141" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="144" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="148" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="151" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="155" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="158" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="168" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="171" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="173" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="176" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="181" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="184" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="190" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="193" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="197" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="201" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="204" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="211" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="216" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="220" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="225" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="230" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="233" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="238" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="243" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="246" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="250" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="253" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="258" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="261" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="264" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="266" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="268" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="272" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="274" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="277" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="281" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="285" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="291" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="298" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="300" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="304" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="307" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="310" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="312" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="314" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="321" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="323" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="329" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="333" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="335" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="339" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="341" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="344" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="352" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="356" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="358" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="361" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="365" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="369" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="375" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="381" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="383" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="388" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="390" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="393" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="398" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="402" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="408" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="415" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="417" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="421" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="423" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="426" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="429" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="431" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="433" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="436" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="442" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="446" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="448" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="452" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="455" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="457" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="460" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="465" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="469" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="475" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="477" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="484" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="486" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="490" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="492" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="495" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="498" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="500" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="503" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="509" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="511" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -636,10 +4022,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:AA13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="M2" workbookViewId="0">
+      <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -665,7 +4051,7 @@
     <col min="20" max="16384" style="5" width="8.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="24">
+    <row r="1" spans="1:27" ht="60">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -673,7 +4059,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -703,26 +4089,52 @@
         <v>2</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="R1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="S1" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="V1" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="W1" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="X1" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y1" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z1" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA1" s="17" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" ht="24.75">
+    <row r="2" spans="1:27" ht="24.75">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -730,26 +4142,28 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="9" t="s">
-        <v>21</v>
+        <v>277</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" t="s" s="524">
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>12</v>
@@ -758,41 +4172,47 @@
         <v>13</v>
       </c>
       <c r="M2" s="2"/>
-      <c r="N2" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="7"/>
     </row>
-    <row r="3" spans="1:19" ht="24.75">
+    <row r="3" spans="1:27" ht="24.75">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>271</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="8" t="s">
-        <v>35</v>
+      <c r="E3" t="s" s="508">
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>12</v>
@@ -801,69 +4221,89 @@
         <v>13</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>41</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
     </row>
-    <row r="4" spans="1:19" ht="30">
+    <row r="4" spans="1:27" ht="30">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="10" t="s">
-        <v>35</v>
+        <v>56</v>
+      </c>
+      <c r="D4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
-      <c r="N4" s="2" t="s">
+      <c r="N4" s="12" t="s">
         <v>41</v>
       </c>
       <c r="O4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
+      <c r="T4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
     </row>
-    <row r="5" spans="1:19" ht="36.75">
+    <row r="5" spans="1:27" ht="36.75">
       <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="11" t="s">
-        <v>35</v>
+        <v>262</v>
+      </c>
+      <c r="D5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="2"/>
@@ -873,51 +4313,359 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
-      <c r="N5" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q5" s="7"/>
       <c r="R5" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
     </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="6">
+    <row r="6" spans="1:27">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2" t="s">
+      <c r="B6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+    </row>
+    <row r="8" spans="1:27" ht="30">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+    </row>
+    <row r="10" spans="1:27" ht="30">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+    </row>
+    <row r="11" spans="1:27" ht="30">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+    </row>
+    <row r="12" spans="1:27" ht="30">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+    </row>
+    <row r="13" spans="1:27" ht="60">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
+      <c r="V13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="W13" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="X13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA13" s="7" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576 I1:I1048576">
-      <formula1>"SERVICE-MGMT-TECHM-QA"</formula1>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G6">
+      <formula1>"DEVELOP-SERVICE-MANAGER,DEVELOP-QA-SERVICE-MANAGER-AG"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576">
-      <formula1>"Amreen Noor"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G3">
+      <formula1>"SERVICE-MGMT-TECHM-QA,INCIDENT-MGMT-PROCESS-SHARED"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J8 J10 J11 J12">
+      <formula1>"1 - Customer and Employee,2 - Customer Only,3 - Employee Only,4 - None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H7">
+      <formula1>"Rashmi P,Amreen Noor"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G10">
+      <formula1>"INCIDENT-MGMT-PROCESS-SHARED"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
